--- a/StateCenterCoordinates.xlsx
+++ b/StateCenterCoordinates.xlsx
@@ -24,9 +24,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Altitude</t>
-  </si>
-  <si>
     <t>Longitude</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t> Wyoming</t>
+  </si>
+  <si>
+    <t>Latitude</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -620,15 +620,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>32.779400000000003</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>64.0685</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>34.2744</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>34.893799999999999</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>37.184100000000001</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>38.997199999999999</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>41.621899999999997</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>38.989600000000003</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>38.9101</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>28.630500000000001</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="12" spans="1:3" ht="17">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>32.641500000000001</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>20.2927</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>44.350900000000003</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>40.041699999999999</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>39.894199999999998</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>42.075099999999999</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>38.493699999999997</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>37.534700000000001</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>31.068899999999999</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>45.369500000000002</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>39.055</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>42.259599999999999</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>44.346699999999998</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>46.280700000000003</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>32.736400000000003</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>38.3566</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>47.052700000000002</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>41.537799999999997</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>39.328899999999997</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>43.680500000000002</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>40.1907</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>34.4071</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="34" spans="1:3" ht="17">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>42.953800000000001</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>35.555700000000002</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>47.450099999999999</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>40.286200000000001</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>35.588900000000002</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>43.933599999999998</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>40.878100000000003</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>41.676200000000001</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
         <v>33.916899999999998</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>44.444299999999998</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>35.857999999999997</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>31.4757</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>39.305500000000002</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1">
         <v>44.0687</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1">
         <v>37.521500000000003</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="49" spans="1:3" ht="17">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>47.382599999999996</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>38.640900000000002</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
         <v>44.624299999999998</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
         <v>42.995699999999999</v>
